--- a/src/test/java/com/nablarch/example/app/web/form/ProjectFormTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/form/ProjectFormTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="売上総利益の取得テスト" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="88">
   <si>
     <t>no</t>
     <phoneticPr fontId="1"/>
@@ -422,13 +422,57 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +605,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,26 +680,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,23 +715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1046,7 +1058,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1070,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1065,14 +1081,18 @@
       <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1084,7 +1104,9 @@
       <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1127,9 @@
       <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1114,15 +1138,21 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1135,7 +1165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1298,7 +1330,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1308,7 +1342,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1317,14 +1353,18 @@
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1336,11 +1376,15 @@
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1355,22 +1399,32 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1383,7 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1548,7 +1604,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
@@ -1558,7 +1616,9 @@
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1567,14 +1627,18 @@
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1586,11 +1650,15 @@
       <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1605,7 +1673,9 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>72</v>
       </c>
@@ -1614,13 +1684,21 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1633,7 +1711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1793,7 +1873,9 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
@@ -1803,7 +1885,9 @@
       <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1812,14 +1896,18 @@
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1831,11 +1919,15 @@
       <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1850,18 +1942,32 @@
       <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1874,7 +1980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2054,7 +2162,9 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2064,7 +2174,9 @@
       <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -2073,14 +2185,18 @@
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -2092,11 +2208,15 @@
       <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -2111,18 +2231,32 @@
       <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
